--- a/va_facility_data_2025-02-20/Harrison VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Harrison%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Harrison VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Harrison%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R69c09d210db24e32b6362027ba5fdc3e"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd8840078ed984d7ea205345a4cb9c4c0"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rbd49958a4d414ae095c501cdba339755"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R38fbd9fada5546f9986dc12aa124cd80"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6155b4bfad8844aebd3d27a7328bd46b"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7a4c2aa27fcd4650a596fafc4c4e9764"/>
   </x:sheets>
 </x:workbook>
 </file>
